--- a/biology/Zoologie/Centrochthonius/Centrochthonius.xlsx
+++ b/biology/Zoologie/Centrochthonius/Centrochthonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centrochthonius est un genre de pseudoscorpions de la famille des Pseudotyrannochthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Centrochthonius kozlovi (Redikorzev, 1918)
 Centrochthonius schnitnikovi (Redikorzev, 1934)
 et décrites ou placées depuis :
@@ -552,7 +568,7 @@
 Centrochthonius cheni (Gao, Zhang &amp; Zhang, 2016)
 Centrochthonius dashdamirovi Kolesnikov, Mikhailov &amp; Turbanov, 2023
 † Centrochthonius bitterfeldicus Schwarze, Harms, Hammel &amp; Kotthoff, 2022
-Centrochthonius ussuriensis a été placée dans le genre Allochthonius par Schwarze, Harms, Hammel et Kotthoff en 2022[2].
+Centrochthonius ussuriensis a été placée dans le genre Allochthonius par Schwarze, Harms, Hammel et Kotthoff en 2022.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Beier en 1931.
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1931 : « Zur Kenntnis der Chthoniiden (Pseudoskorpione). » Zoologischer Anzeiger, vol. 93, p. 49-56.</t>
         </is>
